--- a/data.xlsx
+++ b/data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -983,6 +983,66 @@
         </is>
       </c>
       <c r="D27" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>29.08.2023</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>29.08.2023</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29.08.2023</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>PLN</t>
         </is>
